--- a/docs/Classifcation Reports/DecisionTreeClassifier()_4.xlsx
+++ b/docs/Classifcation Reports/DecisionTreeClassifier()_4.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7539353769676885</v>
+        <v>0.7598989048020219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8220415537488708</v>
+        <v>0.7755803955288049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7865168539325844</v>
+        <v>0.7676595744680852</v>
       </c>
       <c r="E2" t="n">
-        <v>1107</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.858034321372855</v>
+        <v>0.8288431061806656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8100147275405007</v>
+        <v>0.812111801242236</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8203921568627451</v>
       </c>
       <c r="E3" t="n">
-        <v>679</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7188995215311005</v>
+        <v>0.742483660130719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7588383838383839</v>
+        <v>0.7319587628865979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7383292383292384</v>
+        <v>0.7371836469824788</v>
       </c>
       <c r="E4" t="n">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5546875</v>
+        <v>0.5154061624649859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3922651933701657</v>
+        <v>0.5154061624649859</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4595469255663431</v>
+        <v>0.5154061624649859</v>
       </c>
       <c r="E5" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7493197278911564</v>
+        <v>0.7404761904761905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7493197278911564</v>
+        <v>0.7404761904761905</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7493197278911564</v>
+        <v>0.7404761904761905</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7493197278911564</v>
+        <v>0.7404761904761905</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.721389179967911</v>
+        <v>0.7116579583945981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6957899646244803</v>
+        <v>0.7087642805306562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7044315877903748</v>
+        <v>0.7101603851945737</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7440058035945685</v>
+        <v>0.7407158867097069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7493197278911564</v>
+        <v>0.7404761904761905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7440885151185297</v>
+        <v>0.7405357633280253</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
